--- a/Design/API.xlsx
+++ b/Design/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -140,17 +140,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-     result: "success",
-     user:
-     {
-          name: "ABC",
-          role: 1,
-          isReader: false
-     }
-}</t>
-  </si>
-  <si>
     <t>[GET]book/search</t>
   </si>
   <si>
@@ -173,6 +162,68 @@
   </si>
   <si>
     <t>[GET]book/get_all_author</t>
+  </si>
+  <si>
+    <t>Get all author</t>
+  </si>
+  <si>
+    <t>Create new author</t>
+  </si>
+  <si>
+    <t>[POST]book/add_author</t>
+  </si>
+  <si>
+    <t>{
+     name: "ABC",
+     currentUserID: 1
+}</t>
+  </si>
+  <si>
+    <t>Get top New</t>
+  </si>
+  <si>
+    <t>Get book information</t>
+  </si>
+  <si>
+    <t>[GET]/book/get_top_new</t>
+  </si>
+  <si>
+    <t>Get top Renting</t>
+  </si>
+  <si>
+    <t>[GET]/book/get_top_renting</t>
+  </si>
+  <si>
+    <t>Login required</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Book control</t>
+  </si>
+  <si>
+    <t>Add book information</t>
+  </si>
+  <si>
+    <t>[POST]book/add_book_info</t>
+  </si>
+  <si>
+    <t>{
+     result: true,
+     message: "Tạo thành công!"
+}</t>
+  </si>
+  <si>
+    <t>{
+     fullname: "ABC",
+     roleID: 1,
+     role: "Quản lý hệ thống",
+     token: "abcdefghijkl"
+}</t>
   </si>
   <si>
     <t>[
@@ -180,29 +231,77 @@
           id: "x",
           name: "ABC",
           isDeleted: false
-     }
+     },...
 ]</t>
   </si>
   <si>
-    <t>Get all author</t>
-  </si>
-  <si>
-    <t>Create new author</t>
-  </si>
-  <si>
-    <t>[POST]book/add_author</t>
-  </si>
-  <si>
     <t>{
+     ISBN: "ABC",
      name: "ABC",
-     currentUserID: 1
+     author: 1,
+     publisher: 1,
+     releaseDate: "30-12-2020",
+     type: 1,
+     location: "ABC",
+     amount: 10,
+     image: "data/ABC.jpg"
 }</t>
+  </si>
+  <si>
+    <t>Upload book image</t>
+  </si>
+  <si>
+    <t>[POST]book/upload_book_image</t>
+  </si>
+  <si>
+    <t>JPG file</t>
   </si>
   <si>
     <t>{
      result: true,
-     message: "Tao thanh cong"
+     message: "Upload ảnh thành công",
+     data: 
+     {
+           url: "data/123.jpg"
+     }
 }</t>
+  </si>
+  <si>
+    <t>{
+    "result": true,
+    "message": "Tạo thành công",
+    "data": {
+        "id": 2,
+        "name": "Zan Naghazi",
+        "updatedDate": "15-08-2020",
+        "updatedAccount": "Võ Thanh Hiếu",
+        "updatedAccountID": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Get all publisher</t>
+  </si>
+  <si>
+    <t>Create new publisher</t>
+  </si>
+  <si>
+    <t>[GET]book/get_all_publisher</t>
+  </si>
+  <si>
+    <t>[POST]book/add_publisher</t>
+  </si>
+  <si>
+    <t>Get book image</t>
+  </si>
+  <si>
+    <t>[GET]/book/get_image/{file_name}</t>
+  </si>
+  <si>
+    <t>File {file_name}.jpg</t>
   </si>
 </sst>
 </file>
@@ -246,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,7 +362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -277,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,305 +675,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G179"/>
+  <dimension ref="A3:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G8" s="15"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G9" s="15"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G10" s="15"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>13</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>18</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -864,10 +1076,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -875,10 +1088,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -886,10 +1100,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -897,10 +1112,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -908,10 +1124,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -919,10 +1136,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -930,10 +1148,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -941,10 +1160,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -952,10 +1172,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -963,10 +1184,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -974,10 +1196,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -985,10 +1208,11 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -996,10 +1220,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1007,10 +1232,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1018,10 +1244,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1029,10 +1256,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1040,10 +1268,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1051,10 +1280,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1062,10 +1292,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1073,10 +1304,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1084,10 +1316,11 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1095,10 +1328,11 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1106,10 +1340,11 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1117,10 +1352,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -1128,10 +1364,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1139,10 +1376,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1150,10 +1388,11 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1161,10 +1400,11 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1172,10 +1412,11 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1183,10 +1424,11 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1194,10 +1436,11 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -1205,10 +1448,11 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -1216,10 +1460,11 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1227,10 +1472,11 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1238,10 +1484,11 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1249,10 +1496,11 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1260,10 +1508,11 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1271,10 +1520,11 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1282,10 +1532,11 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1293,10 +1544,11 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1304,10 +1556,11 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1315,10 +1568,11 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1326,10 +1580,11 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1337,10 +1592,11 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1348,10 +1604,11 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1359,10 +1616,11 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1370,10 +1628,11 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1381,10 +1640,11 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1392,10 +1652,11 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -1403,10 +1664,11 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -1414,10 +1676,11 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -1425,10 +1688,11 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -1436,10 +1700,11 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -1447,10 +1712,11 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -1458,10 +1724,11 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -1469,10 +1736,11 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -1480,10 +1748,11 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -1491,10 +1760,11 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -1502,10 +1772,11 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -1513,10 +1784,11 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -1524,10 +1796,11 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -1535,10 +1808,11 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -1546,10 +1820,11 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -1557,10 +1832,11 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -1568,10 +1844,11 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -1579,10 +1856,11 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -1590,10 +1868,11 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -1601,10 +1880,11 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -1612,10 +1892,11 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -1623,10 +1904,11 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -1634,10 +1916,11 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -1645,10 +1928,11 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -1656,10 +1940,11 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -1667,10 +1952,11 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -1678,10 +1964,11 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -1689,10 +1976,11 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -1700,10 +1988,11 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -1711,10 +2000,11 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -1722,10 +2012,11 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -1733,10 +2024,11 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -1744,10 +2036,11 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -1755,10 +2048,11 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -1766,10 +2060,11 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -1777,10 +2072,11 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -1788,10 +2084,11 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -1799,10 +2096,11 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -1810,10 +2108,11 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -1821,10 +2120,11 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -1832,10 +2132,11 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -1843,10 +2144,11 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -1854,10 +2156,11 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -1865,10 +2168,11 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -1876,10 +2180,11 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -1887,10 +2192,11 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -1898,10 +2204,11 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -1909,10 +2216,11 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -1920,10 +2228,11 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -1931,10 +2240,11 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -1942,10 +2252,11 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -1953,10 +2264,11 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -1964,10 +2276,11 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -1975,10 +2288,11 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -1986,10 +2300,11 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -1997,10 +2312,11 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -2008,10 +2324,11 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -2019,10 +2336,11 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -2030,10 +2348,11 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -2041,10 +2360,11 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -2052,10 +2372,11 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -2063,10 +2384,11 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -2074,10 +2396,11 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -2085,10 +2408,11 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -2096,10 +2420,11 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -2107,10 +2432,11 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -2118,10 +2444,11 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -2129,10 +2456,11 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -2140,10 +2468,11 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -2151,10 +2480,11 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
@@ -2162,10 +2492,11 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -2173,10 +2504,11 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -2184,10 +2516,11 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -2195,10 +2528,11 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -2206,10 +2540,11 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -2217,10 +2552,11 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -2228,10 +2564,11 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -2239,10 +2576,11 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -2250,10 +2588,11 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -2261,10 +2600,11 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -2272,10 +2612,11 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -2283,10 +2624,11 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -2294,10 +2636,11 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
@@ -2305,10 +2648,11 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -2316,10 +2660,11 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -2327,10 +2672,11 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
@@ -2338,10 +2684,11 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -2349,10 +2696,11 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -2360,10 +2708,11 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -2371,10 +2720,11 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -2382,10 +2732,11 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -2393,10 +2744,11 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -2404,10 +2756,11 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -2415,10 +2768,11 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -2426,10 +2780,11 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -2437,10 +2792,11 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -2448,10 +2804,11 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -2459,10 +2816,11 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -2470,10 +2828,11 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
@@ -2481,10 +2840,11 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -2492,10 +2852,11 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
@@ -2503,10 +2864,11 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
@@ -2514,10 +2876,11 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
@@ -2525,10 +2888,11 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
@@ -2536,10 +2900,11 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -2547,10 +2912,11 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
@@ -2558,10 +2924,11 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
@@ -2569,15 +2936,80 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>169</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>170</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>171</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>172</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>173</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="10">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="E7:E13"/>
     <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Design/API.xlsx
+++ b/Design/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -302,6 +302,32 @@
   </si>
   <si>
     <t>File {file_name}.jpg</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>[POST]book/update_author</t>
+  </si>
+  <si>
+    <t>{
+     "id": 7,
+     "name": "Nam Cao",
+     "currentUserID": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "result": true,
+    "message": "Cập nhật thành công",
+    "data": {
+        "id": 7,
+        "name": "Nam Cao",
+        "updatedDate": "15-08-2020",
+        "updatedAccount": "Võ Thanh Hiếu",
+        "updatedAccountID": 1
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -345,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,11 +406,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H184"/>
+  <dimension ref="A3:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,25 +722,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
@@ -741,13 +770,13 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4"/>
@@ -763,11 +792,11 @@
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -781,11 +810,11 @@
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -799,11 +828,11 @@
       <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -817,11 +846,11 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -835,11 +864,11 @@
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -853,11 +882,11 @@
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,7 +904,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="4"/>
@@ -893,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,65 +1051,73 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>11</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>54</v>
-      </c>
+    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>12</v>
-      </c>
-      <c r="B23" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>12</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1092,7 +1129,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1104,7 +1141,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1116,7 +1153,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1128,7 +1165,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1138,9 +1175,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1150,9 +1187,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1164,7 +1201,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1176,7 +1213,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1188,7 +1225,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1200,7 +1237,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1212,7 +1249,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1224,7 +1261,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1236,7 +1273,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1248,7 +1285,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1260,7 +1297,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1272,7 +1309,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1284,7 +1321,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1296,7 +1333,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1308,7 +1345,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1320,7 +1357,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1332,7 +1369,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1344,7 +1381,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1356,7 +1393,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -1368,7 +1405,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1380,7 +1417,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1392,7 +1429,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1404,7 +1441,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1416,7 +1453,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1428,7 +1465,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1440,7 +1477,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -1452,7 +1489,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -1464,7 +1501,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1476,7 +1513,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1488,7 +1525,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1500,7 +1537,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1512,7 +1549,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1524,7 +1561,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1536,7 +1573,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1548,7 +1585,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1560,7 +1597,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1572,7 +1609,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1584,7 +1621,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1596,7 +1633,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1608,7 +1645,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1620,7 +1657,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1632,7 +1669,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1644,7 +1681,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1656,7 +1693,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -1668,7 +1705,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -1680,7 +1717,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -1692,7 +1729,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -1704,7 +1741,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -1716,7 +1753,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -1728,7 +1765,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -1740,7 +1777,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -1752,7 +1789,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -1764,7 +1801,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -1776,7 +1813,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -1788,7 +1825,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -1800,7 +1837,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -1812,7 +1849,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -1824,7 +1861,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -1836,7 +1873,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -1848,7 +1885,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -1860,7 +1897,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -1872,7 +1909,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -1884,7 +1921,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -1896,7 +1933,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -1908,7 +1945,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -1920,7 +1957,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -1932,7 +1969,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -1944,7 +1981,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -1956,7 +1993,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -1968,7 +2005,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -1980,7 +2017,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -1992,7 +2029,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -2004,7 +2041,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -2016,7 +2053,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -2028,7 +2065,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -2040,7 +2077,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -2052,7 +2089,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -2064,7 +2101,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -2076,7 +2113,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -2088,7 +2125,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -2100,7 +2137,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -2112,7 +2149,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -2124,7 +2161,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -2136,7 +2173,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -2148,7 +2185,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -2160,7 +2197,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -2172,7 +2209,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -2184,7 +2221,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -2196,7 +2233,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -2208,7 +2245,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -2220,7 +2257,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -2232,7 +2269,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -2244,7 +2281,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -2256,7 +2293,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -2268,7 +2305,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -2280,7 +2317,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -2292,7 +2329,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -2304,7 +2341,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -2316,7 +2353,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -2328,7 +2365,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -2340,7 +2377,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -2352,7 +2389,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -2364,7 +2401,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -2376,7 +2413,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -2388,7 +2425,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -2400,7 +2437,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -2412,7 +2449,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -2424,7 +2461,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -2436,7 +2473,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -2448,7 +2485,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -2460,7 +2497,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -2472,7 +2509,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -2484,7 +2521,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
@@ -2496,7 +2533,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -2508,7 +2545,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -2520,7 +2557,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -2532,7 +2569,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -2544,7 +2581,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -2556,7 +2593,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -2568,7 +2605,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -2580,7 +2617,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -2592,7 +2629,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -2604,7 +2641,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -2616,7 +2653,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -2628,7 +2665,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -2640,7 +2677,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
@@ -2652,7 +2689,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -2664,7 +2701,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -2676,7 +2713,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
@@ -2688,7 +2725,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -2700,7 +2737,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -2712,7 +2749,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -2724,7 +2761,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -2736,7 +2773,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -2748,7 +2785,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -2760,7 +2797,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -2772,7 +2809,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -2784,7 +2821,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -2796,7 +2833,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -2808,7 +2845,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -2820,7 +2857,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -2832,7 +2869,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
@@ -2844,7 +2881,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -2856,7 +2893,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
@@ -2868,7 +2905,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
@@ -2880,7 +2917,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
@@ -2892,7 +2929,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
@@ -2904,7 +2941,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -2916,7 +2953,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
@@ -2928,7 +2965,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
@@ -2940,7 +2977,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
@@ -2952,7 +2989,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4"/>
@@ -2964,7 +3001,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4"/>
@@ -2976,7 +3013,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4"/>
@@ -2988,7 +3025,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4"/>
@@ -2998,9 +3035,21 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>173</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A3:H3"/>

--- a/Design/API.xlsx
+++ b/Design/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,111 @@
         "updatedAccountID": 1
     }
 }</t>
+  </si>
+  <si>
+    <t>Update publisher</t>
+  </si>
+  <si>
+    <t>[POST]update_author</t>
+  </si>
+  <si>
+    <t>{
+     "id": 2,
+     "name": "Nhà xuất bản tự cường",
+     "currentUserID": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "result": true,
+    "message": "Cập nhật thành công",
+    "data": {
+        "id": 7,
+        "name": "Nhà xuất bản Zan",
+        "updatedDate": "16-08-2020",
+        "updatedAccount": "Võ Thanh Hiếu",
+        "updatedAccountID": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>Get book by isbn</t>
+  </si>
+  <si>
+    <t>[GET]/book/get_book_by_isbn/{ISBN}</t>
+  </si>
+  <si>
+    <t>{
+    "name": "Dế mèn phiêu lưu ký",
+    "authorID": 3,
+    "publisherID": 2,
+    "releaseDate": "2015-11-11",
+    "type": 5,
+    "location": "1-H-10-1",
+    "path": "/book/get_image/8.jpg",
+    "isDeleted": false,
+    "repository": null,
+    "isbn": "9786042036597"
+}</t>
+  </si>
+  <si>
+    <t>Update Book information</t>
+  </si>
+  <si>
+    <t>[POST]book/update_book_info</t>
+  </si>
+  <si>
+    <t>{
+    "result": true,
+    "message": "Cập nhật thành công"
+}</t>
+  </si>
+  <si>
+    <t>Book Info control</t>
+  </si>
+  <si>
+    <t>Search by ID</t>
+  </si>
+  <si>
+    <t>[POST]book/search_book</t>
+  </si>
+  <si>
+    <t>Search by status</t>
+  </si>
+  <si>
+    <t>Search by customer</t>
+  </si>
+  <si>
+    <t>{
+     type: "status",
+     key: "ABC"
+}</t>
+  </si>
+  <si>
+    <t>Search by customer Identify</t>
+  </si>
+  <si>
+    <t>{
+     type: "rentID",
+     key: "ABC"
+}</t>
+  </si>
+  <si>
+    <t>{
+     type: "rentName",
+     key: "ABC"
+}</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "ID": 4,
+        "ISBN": "0747532699",
+        "isDeleted": false,
+        "status": 1,
+        "statusName": "Sẵn sàng"
+    }
+]</t>
   </si>
 </sst>
 </file>
@@ -371,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +517,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +537,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H185"/>
+  <dimension ref="A3:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,25 +842,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
@@ -761,7 +881,7 @@
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -770,13 +890,13 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4"/>
@@ -785,113 +905,113 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -904,14 +1024,14 @@
         <v>36</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
@@ -922,12 +1042,12 @@
         <v>38</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
@@ -943,265 +1063,311 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
+    <row r="17" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>9</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="20" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="E20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
+      <c r="E21" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>11</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>9</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>12</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1213,7 +1379,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1225,7 +1391,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1237,7 +1403,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1249,7 +1415,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1259,9 +1425,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1273,7 +1439,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1285,7 +1451,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1297,7 +1463,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1309,7 +1475,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1321,7 +1487,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1333,7 +1499,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1345,7 +1511,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1357,7 +1523,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1369,7 +1535,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1381,7 +1547,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1393,7 +1559,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -1405,7 +1571,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1417,7 +1583,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1429,7 +1595,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1441,7 +1607,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1453,7 +1619,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1465,7 +1631,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1477,7 +1643,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -1489,7 +1655,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -1501,7 +1667,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1513,7 +1679,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1525,7 +1691,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1537,7 +1703,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1549,7 +1715,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1561,7 +1727,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1573,7 +1739,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1585,7 +1751,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1597,7 +1763,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1609,7 +1775,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1621,7 +1787,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1633,7 +1799,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1645,7 +1811,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1657,7 +1823,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1669,7 +1835,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1681,7 +1847,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1693,7 +1859,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -1705,7 +1871,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -1717,7 +1883,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -1729,7 +1895,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -1741,7 +1907,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -1753,7 +1919,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -1765,7 +1931,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -1777,7 +1943,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -1789,7 +1955,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -1801,7 +1967,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -1813,7 +1979,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -1825,7 +1991,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -1837,7 +2003,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -1849,7 +2015,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -1861,7 +2027,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -1873,7 +2039,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -1885,7 +2051,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -1897,7 +2063,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -1909,7 +2075,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -1921,7 +2087,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -1933,7 +2099,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -1945,7 +2111,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -1957,7 +2123,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -1969,7 +2135,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -1981,7 +2147,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -1993,7 +2159,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -2005,7 +2171,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -2017,7 +2183,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -2029,7 +2195,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -2041,7 +2207,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -2053,7 +2219,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -2065,7 +2231,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -2077,7 +2243,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -2089,7 +2255,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -2101,7 +2267,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -2113,7 +2279,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -2125,7 +2291,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -2137,7 +2303,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -2149,7 +2315,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -2161,7 +2327,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -2173,7 +2339,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -2185,7 +2351,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -2197,7 +2363,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -2209,7 +2375,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -2221,7 +2387,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -2233,7 +2399,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -2245,7 +2411,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -2257,7 +2423,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -2269,7 +2435,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -2281,7 +2447,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -2293,7 +2459,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -2305,7 +2471,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -2317,7 +2483,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -2329,7 +2495,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -2341,7 +2507,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -2353,7 +2519,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
@@ -2365,7 +2531,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -2377,7 +2543,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
@@ -2389,7 +2555,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
@@ -2401,7 +2567,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -2413,7 +2579,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -2425,7 +2591,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
@@ -2437,7 +2603,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
@@ -2449,7 +2615,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
@@ -2461,7 +2627,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
@@ -2473,7 +2639,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -2485,7 +2651,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -2497,7 +2663,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
@@ -2509,7 +2675,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
@@ -2521,7 +2687,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
@@ -2533,7 +2699,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
@@ -2545,7 +2711,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
@@ -2557,7 +2723,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
@@ -2569,7 +2735,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -2581,7 +2747,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -2593,7 +2759,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -2605,7 +2771,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
@@ -2617,7 +2783,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
@@ -2629,7 +2795,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
@@ -2641,7 +2807,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
@@ -2653,7 +2819,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -2665,7 +2831,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -2677,7 +2843,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
@@ -2689,7 +2855,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
@@ -2701,7 +2867,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -2713,7 +2879,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
@@ -2725,7 +2891,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -2737,7 +2903,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -2749,7 +2915,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -2761,7 +2927,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -2773,7 +2939,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -2785,7 +2951,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -2797,7 +2963,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -2809,7 +2975,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -2821,7 +2987,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -2833,7 +2999,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -2845,7 +3011,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -2857,7 +3023,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -2869,7 +3035,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
@@ -2881,7 +3047,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
@@ -2893,7 +3059,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
@@ -2905,7 +3071,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
@@ -2917,7 +3083,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
@@ -2929,7 +3095,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
@@ -2941,7 +3107,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
@@ -2953,7 +3119,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
@@ -2965,7 +3131,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
@@ -2977,7 +3143,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
@@ -2989,7 +3155,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="4"/>
@@ -3001,7 +3167,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="4"/>
@@ -3013,7 +3179,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="4"/>
@@ -3025,7 +3191,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="4"/>
@@ -3037,7 +3203,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="4"/>
@@ -3047,13 +3213,89 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>168</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>169</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>170</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>171</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>172</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>173</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="14">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G7:G13"/>
     <mergeCell ref="E7:E13"/>
